--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS5.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS5.xlsx
@@ -19,7 +19,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="148">
+  <si>
+    <t>Signal_Value_1</t>
+  </si>
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
   <si>
     <t>Signal_Value_56</t>
   </si>
@@ -195,6 +360,33 @@
     <t>Signal_Value_113</t>
   </si>
   <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -267,10 +459,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -631,15 +820,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -815,10 +1004,202 @@
       <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -827,100 +1208,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002315446742394717</v>
+        <v>0.09869026772416459</v>
       </c>
       <c r="E2">
-        <v>0.007785591041758277</v>
+        <v>0.08657012825205571</v>
       </c>
       <c r="F2">
-        <v>0.03197235864414243</v>
+        <v>0.008713758638702157</v>
       </c>
       <c r="G2">
-        <v>0.01072290316757393</v>
+        <v>0.02348168883110906</v>
       </c>
       <c r="H2">
-        <v>0.04151411325260256</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02301632823725255</v>
+        <v>0.02066728464908775</v>
       </c>
       <c r="J2">
-        <v>0.004708650430260006</v>
+        <v>0.02708108708149785</v>
       </c>
       <c r="K2">
-        <v>0.003897221092363297</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01828598280379125</v>
       </c>
       <c r="M2">
-        <v>0.02912457447478561</v>
+        <v>0.03123111396058428</v>
       </c>
       <c r="N2">
-        <v>0.07394237598021293</v>
+        <v>0.0256235869247979</v>
       </c>
       <c r="O2">
-        <v>0.003762873725065205</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0424300816977045</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.07164618919439673</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.07168763490507479</v>
+        <v>0.01529272503891687</v>
       </c>
       <c r="S2">
-        <v>0.03666045539223606</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.006853152495381744</v>
+        <v>6.961991363190263E-05</v>
       </c>
       <c r="U2">
-        <v>0.005654662813454088</v>
+        <v>0.01965611491598621</v>
       </c>
       <c r="V2">
-        <v>0.06523165811782655</v>
+        <v>0.01112133983560324</v>
       </c>
       <c r="W2">
-        <v>0.09999143429706364</v>
+        <v>0.04420435759980244</v>
       </c>
       <c r="X2">
-        <v>0.07883075611212774</v>
+        <v>0.04586379535816466</v>
       </c>
       <c r="Y2">
-        <v>0.03945318603927188</v>
+        <v>0.03142701275033706</v>
       </c>
       <c r="Z2">
-        <v>0.01668890503668423</v>
+        <v>0.002737291083165417</v>
       </c>
       <c r="AA2">
-        <v>0.0009912598625280657</v>
+        <v>0.06133406086289126</v>
       </c>
       <c r="AB2">
-        <v>0.02160549857886214</v>
+        <v>0.01543574930768421</v>
       </c>
       <c r="AC2">
-        <v>0.06143418817139153</v>
+        <v>0.0008549938586329264</v>
       </c>
       <c r="AD2">
-        <v>0.04680321214479958</v>
+        <v>0.001226871976118865</v>
       </c>
       <c r="AE2">
-        <v>0.0220804058407546</v>
+        <v>0.05368717467010873</v>
       </c>
       <c r="AF2">
-        <v>0.01700361920871541</v>
+        <v>0.1081497599394269</v>
       </c>
       <c r="AG2">
-        <v>0.02836079536594261</v>
+        <v>0.04052221330142203</v>
       </c>
       <c r="AH2">
-        <v>0.02456571259802839</v>
+        <v>0.0120565402852863</v>
       </c>
       <c r="AI2">
-        <v>0.009264755339344274</v>
+        <v>0.1960154804370307</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -994,10 +1375,202 @@
       <c r="BG2">
         <v>0</v>
       </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1072,100 +1645,100 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0009616763688112946</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003375483408480541</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01385945167555234</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02227414777103935</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01874508762300471</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.04439481324138948</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02998997258108715</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.00878833532107205</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.003151714231593139</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0003916354915487628</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.02409107170463539</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.07117806319750994</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002387660407234654</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.02962377134886825</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.05568436266324134</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.06490196968163109</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.03061481778254141</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.005450826063679398</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.005022969767412694</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.05927512899814801</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.08883590075503645</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.08017459214213435</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.04271079458027418</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0170853558210214</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001070539186781162</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.03171340506361234</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.08240863610989328</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.05742453669815811</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.02121628052298807</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01810035282882684</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0357703458931003</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.03236423613732476</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -1173,10 +1746,202 @@
       <c r="BG3">
         <v>0</v>
       </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.01861528471656873</v>
+      </c>
+      <c r="BW3">
+        <v>0.004579338961832321</v>
+      </c>
+      <c r="BX3">
+        <v>0.106806476003498</v>
+      </c>
+      <c r="BY3">
+        <v>0.005389902564815992</v>
+      </c>
+      <c r="BZ3">
+        <v>0.03432617860643957</v>
+      </c>
+      <c r="CA3">
+        <v>0.01439151648473269</v>
+      </c>
+      <c r="CB3">
+        <v>0.05427504175456364</v>
+      </c>
+      <c r="CC3">
+        <v>0.01333000206494716</v>
+      </c>
+      <c r="CD3">
+        <v>0.01674729145181899</v>
+      </c>
+      <c r="CE3">
+        <v>0.01361226475044361</v>
+      </c>
+      <c r="CF3">
+        <v>0.1138784184063486</v>
+      </c>
+      <c r="CG3">
+        <v>0.03910362749079477</v>
+      </c>
+      <c r="CH3">
+        <v>1.878483367726382E-05</v>
+      </c>
+      <c r="CI3">
+        <v>0.0003813284246783463</v>
+      </c>
+      <c r="CJ3">
+        <v>0.002804868796044814</v>
+      </c>
+      <c r="CK3">
+        <v>0.01769134259371289</v>
+      </c>
+      <c r="CL3">
+        <v>0.01262623913390037</v>
+      </c>
+      <c r="CM3">
+        <v>0.006784502422504396</v>
+      </c>
+      <c r="CN3">
+        <v>0.01510820401391035</v>
+      </c>
+      <c r="CO3">
+        <v>0.01234555850696666</v>
+      </c>
+      <c r="CP3">
+        <v>0.09479940152529195</v>
+      </c>
+      <c r="CQ3">
+        <v>0.047593668594519</v>
+      </c>
+      <c r="CR3">
+        <v>0.001673987459955535</v>
+      </c>
+      <c r="CS3">
+        <v>0.03394285870753656</v>
+      </c>
+      <c r="CT3">
+        <v>0.02284181393357055</v>
+      </c>
+      <c r="CU3">
+        <v>0.006791068785866407</v>
+      </c>
+      <c r="CV3">
+        <v>0.002963849509445427</v>
+      </c>
+      <c r="CW3">
+        <v>0.003088741899968609</v>
+      </c>
+      <c r="CX3">
+        <v>0.04533173735693032</v>
+      </c>
+      <c r="CY3">
+        <v>0.1032173054461364</v>
+      </c>
+      <c r="CZ3">
+        <v>0.002814340287686097</v>
+      </c>
+      <c r="DA3">
+        <v>0.1321250545108939</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:123">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1254,108 +2019,300 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.008093225270750392</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03064826083927392</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.004137394918771769</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0447350902086624</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.009056386390787095</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.05510293786914511</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>9.501356970700693E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.009444201848285752</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002157306565050747</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002415485021953061</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.06682265507107903</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0299021096123771</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.006940359291807695</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.05421156736139365</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.06947124953601358</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.04007088981018119</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01760625659772456</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.03197309978952959</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.08616583255968116</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.09172628609429768</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.05439227786173817</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.02344984318421596</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.01192595747480693</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.00722953971651353</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.06410932072224609</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.06020846725028877</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.02686520282515954</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01922275476678547</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.02694012167846555</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.03009109641360215</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01681689800098711</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0.07296680149559732</v>
+      </c>
+      <c r="CO4">
+        <v>0.07946957062326419</v>
+      </c>
+      <c r="CP4">
+        <v>0.002412490156930262</v>
+      </c>
+      <c r="CQ4">
+        <v>0.03686126197310331</v>
+      </c>
+      <c r="CR4">
+        <v>0.00239718076555895</v>
+      </c>
+      <c r="CS4">
+        <v>0.08716405361201683</v>
+      </c>
+      <c r="CT4">
+        <v>0.0322145339843646</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0.0433005425605059</v>
+      </c>
+      <c r="CW4">
+        <v>0.03739463478317123</v>
+      </c>
+      <c r="CX4">
+        <v>0.09761180953292656</v>
+      </c>
+      <c r="CY4">
+        <v>0.0002784271360637463</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0.0001094316741892895</v>
+      </c>
+      <c r="DB4">
+        <v>0.01827185191964666</v>
+      </c>
+      <c r="DC4">
+        <v>0.01929419585350881</v>
+      </c>
+      <c r="DD4">
+        <v>0.0006019910421126118</v>
+      </c>
+      <c r="DE4">
+        <v>0.01964667812770951</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0.1051206062890338</v>
+      </c>
+      <c r="DH4">
+        <v>0.05605867504970311</v>
+      </c>
+      <c r="DI4">
+        <v>0.001388596711278526</v>
+      </c>
+      <c r="DJ4">
+        <v>0.015029303755698</v>
+      </c>
+      <c r="DK4">
+        <v>0.01112324278611431</v>
+      </c>
+      <c r="DL4">
+        <v>0.003220488413491953</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0.004963942823952299</v>
+      </c>
+      <c r="DO4">
+        <v>0.006157242651414073</v>
+      </c>
+      <c r="DP4">
+        <v>0.09002361468757132</v>
+      </c>
+      <c r="DQ4">
+        <v>0.03652136708386495</v>
+      </c>
+      <c r="DR4">
+        <v>0.0203127542663694</v>
+      </c>
+      <c r="DS4">
+        <v>0.1000847102408383</v>
+      </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:123">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1430,100 +2387,100 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.00111486788187749</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>9.757376689044772E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02123445659592302</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02792218359246288</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.03144391644761428</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0456048763386896</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.04324270775453339</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003269807950487491</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.005789070678271422</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0002932811406123948</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.01331748508824075</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.08403337398850709</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.006393942484682565</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.03058213860941256</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.05988535728100121</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.06824183978816031</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.03258742061132957</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01156307969268377</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003071987393116581</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.05548491401991512</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.09243664771572464</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0849714157258048</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.04162729897903581</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.02012059598483628</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002940083434279487</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.02381542378770783</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.06142306078840547</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.04088155838109078</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01794228738463553</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01448270085248866</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.02814184661943438</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.02604279924214415</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -1531,10 +2488,202 @@
       <c r="BG5">
         <v>0</v>
       </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0.04419196806949597</v>
+      </c>
+      <c r="CO5">
+        <v>0.07662704805413362</v>
+      </c>
+      <c r="CP5">
+        <v>0.0001360522997994363</v>
+      </c>
+      <c r="CQ5">
+        <v>0.01397867762739674</v>
+      </c>
+      <c r="CR5">
+        <v>0.03614607917848649</v>
+      </c>
+      <c r="CS5">
+        <v>0.00527115948447386</v>
+      </c>
+      <c r="CT5">
+        <v>0.1203943410484015</v>
+      </c>
+      <c r="CU5">
+        <v>0.003367110182341856</v>
+      </c>
+      <c r="CV5">
+        <v>0.02599426484946797</v>
+      </c>
+      <c r="CW5">
+        <v>0.02431574917904106</v>
+      </c>
+      <c r="CX5">
+        <v>0.1241868917591826</v>
+      </c>
+      <c r="CY5">
+        <v>0.0005279640904051573</v>
+      </c>
+      <c r="CZ5">
+        <v>0.003303639133610774</v>
+      </c>
+      <c r="DA5">
+        <v>0.03309980653201798</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0.02373778553794748</v>
+      </c>
+      <c r="DE5">
+        <v>0.01310966911732278</v>
+      </c>
+      <c r="DF5">
+        <v>0.03268502855084054</v>
+      </c>
+      <c r="DG5">
+        <v>0.07806284375640915</v>
+      </c>
+      <c r="DH5">
+        <v>0.04160686539953495</v>
+      </c>
+      <c r="DI5">
+        <v>0.0002819624606472408</v>
+      </c>
+      <c r="DJ5">
+        <v>0.006862207786040458</v>
+      </c>
+      <c r="DK5">
+        <v>0.01040583693491472</v>
+      </c>
+      <c r="DL5">
+        <v>0.003070460340085614</v>
+      </c>
+      <c r="DM5">
+        <v>0.006167073631689154</v>
+      </c>
+      <c r="DN5">
+        <v>0.002397566368420172</v>
+      </c>
+      <c r="DO5">
+        <v>0.003971111916457631</v>
+      </c>
+      <c r="DP5">
+        <v>0.09258788620040911</v>
+      </c>
+      <c r="DQ5">
+        <v>0.05106593228245584</v>
+      </c>
+      <c r="DR5">
+        <v>0.03855287697455836</v>
+      </c>
+      <c r="DS5">
+        <v>0.08389414125401166</v>
+      </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:123">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1615,100 +2764,292 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01951299278301554</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0181125359519141</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0238105743604719</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.02706522079399843</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03237138818567802</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>7.917638532616693E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.005809120941367193</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>8.163301163148646E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001870245149086708</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.06792560128624713</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.03050688579380192</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01208505510978683</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.05477935420572855</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.05049808331609158</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.03517583516436352</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.03127450691504118</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001249484891647342</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.03559296502426638</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.09294905801298851</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.1069898084836023</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0705126107153403</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0312425073032216</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01031759282048837</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.008410567526578769</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.05154712373125817</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.04803967412174833</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.02399363760992311</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01909789826322927</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.03060713459721361</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.03233608997946018</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01480240271587155</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.01135323484961201</v>
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0.02986186974864219</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0.05177187105792004</v>
+      </c>
+      <c r="BZ6">
+        <v>0.0009748532313089154</v>
+      </c>
+      <c r="CA6">
+        <v>0.04216303049465873</v>
+      </c>
+      <c r="CB6">
+        <v>0.000598661633244804</v>
+      </c>
+      <c r="CC6">
+        <v>0.1558253992422536</v>
+      </c>
+      <c r="CD6">
+        <v>0.003901396802458063</v>
+      </c>
+      <c r="CE6">
+        <v>0.01671000742337892</v>
+      </c>
+      <c r="CF6">
+        <v>0.0007418556869535725</v>
+      </c>
+      <c r="CG6">
+        <v>0.07398486076499722</v>
+      </c>
+      <c r="CH6">
+        <v>0.02029598165600898</v>
+      </c>
+      <c r="CI6">
+        <v>0.01741118563152419</v>
+      </c>
+      <c r="CJ6">
+        <v>0.007309724632565179</v>
+      </c>
+      <c r="CK6">
+        <v>0.0003215290010056326</v>
+      </c>
+      <c r="CL6">
+        <v>0.006384417364002893</v>
+      </c>
+      <c r="CM6">
+        <v>0.01619340124771435</v>
+      </c>
+      <c r="CN6">
+        <v>0.006497713435503778</v>
+      </c>
+      <c r="CO6">
+        <v>0.02731413923576888</v>
+      </c>
+      <c r="CP6">
+        <v>0.0394045528360894</v>
+      </c>
+      <c r="CQ6">
+        <v>0.1641306689471549</v>
+      </c>
+      <c r="CR6">
+        <v>0.03077922105848956</v>
+      </c>
+      <c r="CS6">
+        <v>0.01184872975452858</v>
+      </c>
+      <c r="CT6">
+        <v>0.03207522572264101</v>
+      </c>
+      <c r="CU6">
+        <v>0.02530964639496398</v>
+      </c>
+      <c r="CV6">
+        <v>0.009262785137830487</v>
+      </c>
+      <c r="CW6">
+        <v>0.002023941568181429</v>
+      </c>
+      <c r="CX6">
+        <v>0.01224551484515296</v>
+      </c>
+      <c r="CY6">
+        <v>0.03483678110403378</v>
+      </c>
+      <c r="CZ6">
+        <v>0.07967951011249487</v>
+      </c>
+      <c r="DA6">
+        <v>0.004568513270333192</v>
+      </c>
+      <c r="DB6">
+        <v>0.07557301095819585</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1718,15 +3059,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG6"/>
+  <dimension ref="A1:DS6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:123">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1902,10 +3243,202 @@
       <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:123">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1914,177 +3447,369 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002315446742394717</v>
+        <v>0.09869026772416459</v>
       </c>
       <c r="E2">
-        <v>0.01010103778415299</v>
+        <v>0.1852603959762203</v>
       </c>
       <c r="F2">
-        <v>0.04207339642829542</v>
+        <v>0.1939741546149225</v>
       </c>
       <c r="G2">
-        <v>0.05279629959586934</v>
+        <v>0.2174558434460315</v>
       </c>
       <c r="H2">
-        <v>0.0943104128484719</v>
+        <v>0.2174558434460315</v>
       </c>
       <c r="I2">
-        <v>0.1173267410857245</v>
+        <v>0.2381231280951193</v>
       </c>
       <c r="J2">
-        <v>0.1220353915159845</v>
+        <v>0.2652042151766171</v>
       </c>
       <c r="K2">
-        <v>0.1259326126083478</v>
+        <v>0.2652042151766171</v>
       </c>
       <c r="L2">
-        <v>0.1259326126083478</v>
+        <v>0.2834901979804084</v>
       </c>
       <c r="M2">
-        <v>0.1550571870831334</v>
+        <v>0.3147213119409926</v>
       </c>
       <c r="N2">
-        <v>0.2289995630633463</v>
+        <v>0.3403448988657905</v>
       </c>
       <c r="O2">
-        <v>0.2327624367884115</v>
+        <v>0.3403448988657905</v>
       </c>
       <c r="P2">
-        <v>0.275192518486116</v>
+        <v>0.3403448988657905</v>
       </c>
       <c r="Q2">
-        <v>0.3468387076805127</v>
+        <v>0.3403448988657905</v>
       </c>
       <c r="R2">
-        <v>0.4185263425855875</v>
+        <v>0.3556376239047074</v>
       </c>
       <c r="S2">
-        <v>0.4551867979778236</v>
+        <v>0.3556376239047074</v>
       </c>
       <c r="T2">
-        <v>0.4620399504732053</v>
+        <v>0.3557072438183393</v>
       </c>
       <c r="U2">
-        <v>0.4676946132866595</v>
+        <v>0.3753633587343255</v>
       </c>
       <c r="V2">
-        <v>0.532926271404486</v>
+        <v>0.3864846985699287</v>
       </c>
       <c r="W2">
-        <v>0.6329177057015496</v>
+        <v>0.4306890561697312</v>
       </c>
       <c r="X2">
-        <v>0.7117484618136773</v>
+        <v>0.4765528515278958</v>
       </c>
       <c r="Y2">
-        <v>0.7512016478529492</v>
+        <v>0.5079798642782329</v>
       </c>
       <c r="Z2">
-        <v>0.7678905528896334</v>
+        <v>0.5107171553613984</v>
       </c>
       <c r="AA2">
-        <v>0.7688818127521614</v>
+        <v>0.5720512162242897</v>
       </c>
       <c r="AB2">
-        <v>0.7904873113310236</v>
+        <v>0.5874869655319739</v>
       </c>
       <c r="AC2">
-        <v>0.8519214995024151</v>
+        <v>0.5883419593906069</v>
       </c>
       <c r="AD2">
-        <v>0.8987247116472147</v>
+        <v>0.5895688313667257</v>
       </c>
       <c r="AE2">
-        <v>0.9208051174879692</v>
+        <v>0.6432560060368344</v>
       </c>
       <c r="AF2">
-        <v>0.9378087366966846</v>
+        <v>0.7514057659762613</v>
       </c>
       <c r="AG2">
-        <v>0.9661695320626272</v>
+        <v>0.7919279792776833</v>
       </c>
       <c r="AH2">
-        <v>0.9907352446606557</v>
+        <v>0.8039845195629697</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
+      <c r="DS2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:123">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2159,643 +3884,1411 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0009616763688112946</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001299224709659349</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01515867638521169</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03743282415625104</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05617791177925575</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1005727250206452</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.1305626976017324</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.1393510329228044</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.1425027471543976</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.1428943826459463</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.1669854543505817</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.2381635175480917</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.2405511779553263</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.2701749493041946</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.3258593119674359</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.390761281649067</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.4213760994316084</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.4268269254952878</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.4318498952627005</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.4911250242608485</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.5799609250158849</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.6601355171580192</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.7028463117382934</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.7199316675593148</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.7210022067460959</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.7527156118097083</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.8351242479196015</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.8925487846177595</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.9137650651407476</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.9318654179695744</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.9676357638626748</v>
+        <v>0</v>
       </c>
       <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.01861528471656873</v>
+      </c>
+      <c r="BW3">
+        <v>0.02319462367840105</v>
+      </c>
+      <c r="BX3">
+        <v>0.130001099681899</v>
+      </c>
+      <c r="BY3">
+        <v>0.135391002246715</v>
+      </c>
+      <c r="BZ3">
+        <v>0.1697171808531546</v>
+      </c>
+      <c r="CA3">
+        <v>0.1841086973378873</v>
+      </c>
+      <c r="CB3">
+        <v>0.2383837390924509</v>
+      </c>
+      <c r="CC3">
+        <v>0.2517137411573981</v>
+      </c>
+      <c r="CD3">
+        <v>0.2684610326092171</v>
+      </c>
+      <c r="CE3">
+        <v>0.2820732973596607</v>
+      </c>
+      <c r="CF3">
+        <v>0.3959517157660093</v>
+      </c>
+      <c r="CG3">
+        <v>0.4350553432568041</v>
+      </c>
+      <c r="CH3">
+        <v>0.4350741280904813</v>
+      </c>
+      <c r="CI3">
+        <v>0.4354554565151597</v>
+      </c>
+      <c r="CJ3">
+        <v>0.4382603253112045</v>
+      </c>
+      <c r="CK3">
+        <v>0.4559516679049174</v>
+      </c>
+      <c r="CL3">
+        <v>0.4685779070388178</v>
+      </c>
+      <c r="CM3">
+        <v>0.4753624094613222</v>
+      </c>
+      <c r="CN3">
+        <v>0.4904706134752325</v>
+      </c>
+      <c r="CO3">
+        <v>0.5028161719821992</v>
+      </c>
+      <c r="CP3">
+        <v>0.5976155735074912</v>
+      </c>
+      <c r="CQ3">
+        <v>0.6452092421020101</v>
+      </c>
+      <c r="CR3">
+        <v>0.6468832295619656</v>
+      </c>
+      <c r="CS3">
+        <v>0.6808260882695022</v>
+      </c>
+      <c r="CT3">
+        <v>0.7036679022030727</v>
+      </c>
+      <c r="CU3">
+        <v>0.7104589709889392</v>
+      </c>
+      <c r="CV3">
+        <v>0.7134228204983846</v>
+      </c>
+      <c r="CW3">
+        <v>0.7165115623983532</v>
+      </c>
+      <c r="CX3">
+        <v>0.7618432997552835</v>
+      </c>
+      <c r="CY3">
+        <v>0.8650606052014199</v>
+      </c>
+      <c r="CZ3">
+        <v>0.867874945489106</v>
+      </c>
+      <c r="DA3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>1</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>1</v>
+      </c>
+      <c r="DH3">
+        <v>1</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>1</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>1</v>
+      </c>
+      <c r="DM3">
+        <v>1</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3">
+        <v>1</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:123">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0.07296680149559732</v>
+      </c>
+      <c r="CO4">
+        <v>0.1524363721188615</v>
+      </c>
+      <c r="CP4">
+        <v>0.1548488622757918</v>
+      </c>
+      <c r="CQ4">
+        <v>0.1917101242488951</v>
+      </c>
+      <c r="CR4">
+        <v>0.1941073050144541</v>
+      </c>
+      <c r="CS4">
+        <v>0.2812713586264709</v>
+      </c>
+      <c r="CT4">
+        <v>0.3134858926108355</v>
+      </c>
+      <c r="CU4">
+        <v>0.3134858926108355</v>
+      </c>
+      <c r="CV4">
+        <v>0.3567864351713414</v>
+      </c>
+      <c r="CW4">
+        <v>0.3941810699545126</v>
+      </c>
+      <c r="CX4">
+        <v>0.4917928794874392</v>
+      </c>
+      <c r="CY4">
+        <v>0.492071306623503</v>
+      </c>
+      <c r="CZ4">
+        <v>0.492071306623503</v>
+      </c>
+      <c r="DA4">
+        <v>0.4921807382976923</v>
+      </c>
+      <c r="DB4">
+        <v>0.5104525902173389</v>
+      </c>
+      <c r="DC4">
+        <v>0.5297467860708477</v>
+      </c>
+      <c r="DD4">
+        <v>0.5303487771129602</v>
+      </c>
+      <c r="DE4">
+        <v>0.5499954552406697</v>
+      </c>
+      <c r="DF4">
+        <v>0.5499954552406697</v>
+      </c>
+      <c r="DG4">
+        <v>0.6551160615297035</v>
+      </c>
+      <c r="DH4">
+        <v>0.7111747365794066</v>
+      </c>
+      <c r="DI4">
+        <v>0.7125633332906851</v>
+      </c>
+      <c r="DJ4">
+        <v>0.7275926370463831</v>
+      </c>
+      <c r="DK4">
+        <v>0.7387158798324974</v>
+      </c>
+      <c r="DL4">
+        <v>0.7419363682459894</v>
+      </c>
+      <c r="DM4">
+        <v>0.7419363682459894</v>
+      </c>
+      <c r="DN4">
+        <v>0.7469003110699417</v>
+      </c>
+      <c r="DO4">
+        <v>0.7530575537213557</v>
+      </c>
+      <c r="DP4">
+        <v>0.8430811684089271</v>
+      </c>
+      <c r="DQ4">
+        <v>0.8796025354927921</v>
+      </c>
+      <c r="DR4">
+        <v>0.8999152897591615</v>
+      </c>
+      <c r="DS4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:123">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0.04419196806949597</v>
+      </c>
+      <c r="CO5">
+        <v>0.1208190161236296</v>
+      </c>
+      <c r="CP5">
+        <v>0.120955068423429</v>
+      </c>
+      <c r="CQ5">
+        <v>0.1349337460508258</v>
+      </c>
+      <c r="CR5">
+        <v>0.1710798252293123</v>
+      </c>
+      <c r="CS5">
+        <v>0.1763509847137861</v>
+      </c>
+      <c r="CT5">
+        <v>0.2967453257621877</v>
+      </c>
+      <c r="CU5">
+        <v>0.3001124359445295</v>
+      </c>
+      <c r="CV5">
+        <v>0.3261067007939975</v>
+      </c>
+      <c r="CW5">
+        <v>0.3504224499730386</v>
+      </c>
+      <c r="CX5">
+        <v>0.4746093417322211</v>
+      </c>
+      <c r="CY5">
+        <v>0.4751373058226263</v>
+      </c>
+      <c r="CZ5">
+        <v>0.4784409449562371</v>
+      </c>
+      <c r="DA5">
+        <v>0.5115407514882551</v>
+      </c>
+      <c r="DB5">
+        <v>0.5115407514882551</v>
+      </c>
+      <c r="DC5">
+        <v>0.5115407514882551</v>
+      </c>
+      <c r="DD5">
+        <v>0.5352785370262025</v>
+      </c>
+      <c r="DE5">
+        <v>0.5483882061435253</v>
+      </c>
+      <c r="DF5">
+        <v>0.5810732346943659</v>
+      </c>
+      <c r="DG5">
+        <v>0.659136078450775</v>
+      </c>
+      <c r="DH5">
+        <v>0.70074294385031</v>
+      </c>
+      <c r="DI5">
+        <v>0.7010249063109573</v>
+      </c>
+      <c r="DJ5">
+        <v>0.7078871140969977</v>
+      </c>
+      <c r="DK5">
+        <v>0.7182929510319124</v>
+      </c>
+      <c r="DL5">
+        <v>0.721363411371998</v>
+      </c>
+      <c r="DM5">
+        <v>0.7275304850036871</v>
+      </c>
+      <c r="DN5">
+        <v>0.7299280513721073</v>
+      </c>
+      <c r="DO5">
+        <v>0.7338991632885649</v>
+      </c>
+      <c r="DP5">
+        <v>0.826487049488974</v>
+      </c>
+      <c r="DQ5">
+        <v>0.8775529817714298</v>
+      </c>
+      <c r="DR5">
+        <v>0.9161058587459882</v>
+      </c>
+      <c r="DS5">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:123">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0.02986186974864219</v>
+      </c>
+      <c r="BX6">
+        <v>0.02986186974864219</v>
+      </c>
+      <c r="BY6">
+        <v>0.08163374080656223</v>
+      </c>
+      <c r="BZ6">
+        <v>0.08260859403787114</v>
+      </c>
+      <c r="CA6">
+        <v>0.1247716245325299</v>
+      </c>
+      <c r="CB6">
+        <v>0.1253702861657747</v>
+      </c>
+      <c r="CC6">
+        <v>0.2811956854080282</v>
+      </c>
+      <c r="CD6">
+        <v>0.2850970822104862</v>
+      </c>
+      <c r="CE6">
+        <v>0.3018070896338652</v>
+      </c>
+      <c r="CF6">
+        <v>0.3025489453208187</v>
+      </c>
+      <c r="CG6">
+        <v>0.3765338060858159</v>
+      </c>
+      <c r="CH6">
+        <v>0.3968297877418249</v>
+      </c>
+      <c r="CI6">
+        <v>0.4142409733733491</v>
+      </c>
+      <c r="CJ6">
+        <v>0.4215506980059143</v>
+      </c>
+      <c r="CK6">
+        <v>0.42187222700692</v>
+      </c>
+      <c r="CL6">
+        <v>0.4282566443709229</v>
+      </c>
+      <c r="CM6">
+        <v>0.4444500456186372</v>
+      </c>
+      <c r="CN6">
+        <v>0.450947759054141</v>
+      </c>
+      <c r="CO6">
+        <v>0.4782618982899098</v>
+      </c>
+      <c r="CP6">
+        <v>0.5176664511259992</v>
+      </c>
+      <c r="CQ6">
+        <v>0.6817971200731541</v>
+      </c>
+      <c r="CR6">
+        <v>0.7125763411316436</v>
+      </c>
+      <c r="CS6">
+        <v>0.7244250708861721</v>
+      </c>
+      <c r="CT6">
+        <v>0.7565002966088131</v>
+      </c>
+      <c r="CU6">
+        <v>0.7818099430037772</v>
+      </c>
+      <c r="CV6">
+        <v>0.7910727281416077</v>
+      </c>
+      <c r="CW6">
+        <v>0.7930966697097891</v>
+      </c>
+      <c r="CX6">
+        <v>0.805342184554942</v>
+      </c>
+      <c r="CY6">
+        <v>0.8401789656589758</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9198584757714706</v>
+      </c>
+      <c r="DA6">
+        <v>0.9244269890418038</v>
+      </c>
+      <c r="DB6">
         <v>0.9999999999999996</v>
       </c>
-      <c r="BF3">
+      <c r="DC6">
         <v>0.9999999999999996</v>
       </c>
-      <c r="BG3">
+      <c r="DD6">
         <v>0.9999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0.008093225270750392</v>
-      </c>
-      <c r="AB4">
-        <v>0.03874148611002431</v>
-      </c>
-      <c r="AC4">
-        <v>0.04287888102879608</v>
-      </c>
-      <c r="AD4">
-        <v>0.08761397123745848</v>
-      </c>
-      <c r="AE4">
-        <v>0.09667035762824558</v>
-      </c>
-      <c r="AF4">
-        <v>0.1517732954973907</v>
-      </c>
-      <c r="AG4">
-        <v>0.1517827968543614</v>
-      </c>
-      <c r="AH4">
-        <v>0.1612269987026471</v>
-      </c>
-      <c r="AI4">
-        <v>0.1614427293591522</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1638582143811053</v>
-      </c>
-      <c r="AK4">
-        <v>0.2306808694521843</v>
-      </c>
-      <c r="AL4">
-        <v>0.2605829790645614</v>
-      </c>
-      <c r="AM4">
-        <v>0.2675233383563691</v>
-      </c>
-      <c r="AN4">
-        <v>0.3217349057177628</v>
-      </c>
-      <c r="AO4">
-        <v>0.3912061552537763</v>
-      </c>
-      <c r="AP4">
-        <v>0.4312770450639575</v>
-      </c>
-      <c r="AQ4">
-        <v>0.4488833016616821</v>
-      </c>
-      <c r="AR4">
-        <v>0.4488833016616821</v>
-      </c>
-      <c r="AS4">
-        <v>0.4808564014512117</v>
-      </c>
-      <c r="AT4">
-        <v>0.5670222340108929</v>
-      </c>
-      <c r="AU4">
-        <v>0.6587485201051906</v>
-      </c>
-      <c r="AV4">
-        <v>0.7131407979669288</v>
-      </c>
-      <c r="AW4">
-        <v>0.7365906411511447</v>
-      </c>
-      <c r="AX4">
-        <v>0.7485165986259517</v>
-      </c>
-      <c r="AY4">
-        <v>0.7557461383424652</v>
-      </c>
-      <c r="AZ4">
-        <v>0.8198554590647112</v>
-      </c>
-      <c r="BA4">
-        <v>0.880063926315</v>
-      </c>
-      <c r="BB4">
-        <v>0.9069291291401596</v>
-      </c>
-      <c r="BC4">
-        <v>0.926151883906945</v>
-      </c>
-      <c r="BD4">
-        <v>0.9530920055854106</v>
-      </c>
-      <c r="BE4">
-        <v>0.9831831019990128</v>
-      </c>
-      <c r="BF4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BG4">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0.00111486788187749</v>
-      </c>
-      <c r="AA5">
-        <v>0.001212441648767937</v>
-      </c>
-      <c r="AB5">
-        <v>0.02244689824469095</v>
-      </c>
-      <c r="AC5">
-        <v>0.05036908183715384</v>
-      </c>
-      <c r="AD5">
-        <v>0.08181299828476812</v>
-      </c>
-      <c r="AE5">
-        <v>0.1274178746234577</v>
-      </c>
-      <c r="AF5">
-        <v>0.1706605823779911</v>
-      </c>
-      <c r="AG5">
-        <v>0.1739303903284786</v>
-      </c>
-      <c r="AH5">
-        <v>0.17971946100675</v>
-      </c>
-      <c r="AI5">
-        <v>0.1800127421473624</v>
-      </c>
-      <c r="AJ5">
-        <v>0.1933302272356031</v>
-      </c>
-      <c r="AK5">
-        <v>0.2773636012241102</v>
-      </c>
-      <c r="AL5">
-        <v>0.2837575437087927</v>
-      </c>
-      <c r="AM5">
-        <v>0.3143396823182053</v>
-      </c>
-      <c r="AN5">
-        <v>0.3742250395992065</v>
-      </c>
-      <c r="AO5">
-        <v>0.4424668793873668</v>
-      </c>
-      <c r="AP5">
-        <v>0.4750542999986964</v>
-      </c>
-      <c r="AQ5">
-        <v>0.4866173796913802</v>
-      </c>
-      <c r="AR5">
-        <v>0.4896893670844968</v>
-      </c>
-      <c r="AS5">
-        <v>0.5451742811044119</v>
-      </c>
-      <c r="AT5">
-        <v>0.6376109288201366</v>
-      </c>
-      <c r="AU5">
-        <v>0.7225823445459414</v>
-      </c>
-      <c r="AV5">
-        <v>0.7642096435249772</v>
-      </c>
-      <c r="AW5">
-        <v>0.7843302395098135</v>
-      </c>
-      <c r="AX5">
-        <v>0.787270322944093</v>
-      </c>
-      <c r="AY5">
-        <v>0.8110857467318009</v>
-      </c>
-      <c r="AZ5">
-        <v>0.8725088075202063</v>
-      </c>
-      <c r="BA5">
-        <v>0.9133903659012971</v>
-      </c>
-      <c r="BB5">
-        <v>0.9313326532859326</v>
-      </c>
-      <c r="BC5">
-        <v>0.9458153541384213</v>
-      </c>
-      <c r="BD5">
-        <v>0.9739572007578557</v>
-      </c>
-      <c r="BE5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BF5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BG5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.01951299278301554</v>
-      </c>
-      <c r="AC6">
-        <v>0.03762552873492965</v>
-      </c>
-      <c r="AD6">
-        <v>0.06143610309540155</v>
-      </c>
-      <c r="AE6">
-        <v>0.08850132388939999</v>
-      </c>
-      <c r="AF6">
-        <v>0.120872712075078</v>
-      </c>
-      <c r="AG6">
-        <v>0.1209518884604042</v>
-      </c>
-      <c r="AH6">
-        <v>0.1267610094017714</v>
-      </c>
-      <c r="AI6">
-        <v>0.1268426424134029</v>
-      </c>
-      <c r="AJ6">
-        <v>0.1287128875624896</v>
-      </c>
-      <c r="AK6">
-        <v>0.1966384888487367</v>
-      </c>
-      <c r="AL6">
-        <v>0.2271453746425386</v>
-      </c>
-      <c r="AM6">
-        <v>0.2392304297523254</v>
-      </c>
-      <c r="AN6">
-        <v>0.294009783958054</v>
-      </c>
-      <c r="AO6">
-        <v>0.3445078672741456</v>
-      </c>
-      <c r="AP6">
-        <v>0.3796837024385091</v>
-      </c>
-      <c r="AQ6">
-        <v>0.4109582093535503</v>
-      </c>
-      <c r="AR6">
-        <v>0.4122076942451976</v>
-      </c>
-      <c r="AS6">
-        <v>0.447800659269464</v>
-      </c>
-      <c r="AT6">
-        <v>0.5407497172824525</v>
-      </c>
-      <c r="AU6">
-        <v>0.6477395257660548</v>
-      </c>
-      <c r="AV6">
-        <v>0.7182521364813951</v>
-      </c>
-      <c r="AW6">
-        <v>0.7494946437846167</v>
-      </c>
-      <c r="AX6">
-        <v>0.7598122366051051</v>
-      </c>
-      <c r="AY6">
-        <v>0.7682228041316839</v>
-      </c>
-      <c r="AZ6">
-        <v>0.819769927862942</v>
-      </c>
-      <c r="BA6">
-        <v>0.8678096019846904</v>
-      </c>
-      <c r="BB6">
-        <v>0.8918032395946135</v>
-      </c>
-      <c r="BC6">
-        <v>0.9109011378578428</v>
-      </c>
-      <c r="BD6">
-        <v>0.9415082724550564</v>
-      </c>
-      <c r="BE6">
-        <v>0.9738443624345166</v>
-      </c>
-      <c r="BF6">
-        <v>0.9886467651503881</v>
-      </c>
-      <c r="BG6">
-        <v>1</v>
+      <c r="DE6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DG6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DH6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DI6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DK6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DL6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DM6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DN6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DO6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DP6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DQ6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DR6">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DS6">
+        <v>0.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2813,302 +5306,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>0.09869026772416459</v>
+      </c>
+      <c r="F2">
+        <v>0.5079798642782329</v>
+      </c>
+      <c r="G2">
         <v>21</v>
-      </c>
-      <c r="E2">
-        <v>0.01010103778415299</v>
-      </c>
-      <c r="F2">
-        <v>0.532926271404486</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.01515867638521169</v>
+        <v>0.130001099681899</v>
       </c>
       <c r="F3">
-        <v>0.5799609250158849</v>
+        <v>0.5028161719821992</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.03874148611002431</v>
+        <v>0.1524363721188615</v>
       </c>
       <c r="F4">
-        <v>0.5670222340108929</v>
+        <v>0.5104525902173389</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.02244689824469095</v>
+        <v>0.1208190161236296</v>
       </c>
       <c r="F5">
-        <v>0.5451742811044119</v>
+        <v>0.5115407514882551</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01951299278301554</v>
+        <v>0.08163374080656223</v>
       </c>
       <c r="F6">
-        <v>0.5407497172824525</v>
+        <v>0.5176664511259992</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3126,222 +5604,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>0.01010103778415299</v>
+        <v>0.09869026772416459</v>
       </c>
       <c r="F2">
-        <v>0.7117484618136773</v>
+        <v>0.7514057659762613</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.01515867638521169</v>
+        <v>0.130001099681899</v>
       </c>
       <c r="F3">
-        <v>0.7028463117382934</v>
+        <v>0.7036679022030727</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E4">
-        <v>0.03874148611002431</v>
+        <v>0.1524363721188615</v>
       </c>
       <c r="F4">
-        <v>0.7131407979669288</v>
+        <v>0.7111747365794066</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>0.02244689824469095</v>
+        <v>0.1208190161236296</v>
       </c>
       <c r="F5">
-        <v>0.7225823445459414</v>
+        <v>0.70074294385031</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -3350,78 +5819,72 @@
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>0.01951299278301554</v>
+        <v>0.08163374080656223</v>
       </c>
       <c r="F6">
-        <v>0.7182521364813951</v>
+        <v>0.7125763411316436</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3439,302 +5902,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>0.01010103778415299</v>
+        <v>0.09869026772416459</v>
       </c>
       <c r="F2">
-        <v>0.8519214995024151</v>
+        <v>0.8039845195629697</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>0.130001099681899</v>
+      </c>
+      <c r="F3">
+        <v>0.8650606052014199</v>
+      </c>
+      <c r="G3">
         <v>27</v>
-      </c>
-      <c r="D3">
-        <v>51</v>
-      </c>
-      <c r="E3">
-        <v>0.01515867638521169</v>
-      </c>
-      <c r="F3">
-        <v>0.8351242479196015</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <v>119</v>
+      </c>
+      <c r="E4">
+        <v>0.1524363721188615</v>
+      </c>
+      <c r="F4">
+        <v>0.8430811684089271</v>
+      </c>
+      <c r="G4">
         <v>27</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>0.03874148611002431</v>
-      </c>
-      <c r="F4">
-        <v>0.8198554590647112</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>0.1208190161236296</v>
+      </c>
+      <c r="F5">
+        <v>0.826487049488974</v>
+      </c>
+      <c r="G5">
         <v>27</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>0.02244689824469095</v>
-      </c>
-      <c r="F5">
-        <v>0.8110857467318009</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.01951299278301554</v>
+        <v>0.08163374080656223</v>
       </c>
       <c r="F6">
-        <v>0.819769927862942</v>
+        <v>0.805342184554942</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3752,272 +6200,260 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>0.01010103778415299</v>
+        <v>0.09869026772416459</v>
       </c>
       <c r="F2">
-        <v>0.9208051174879692</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L2">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>0.01515867638521169</v>
+        <v>0.130001099681899</v>
       </c>
       <c r="F3">
-        <v>0.9137650651407476</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>0.03874148611002431</v>
+        <v>0.1524363721188615</v>
       </c>
       <c r="F4">
-        <v>0.9069291291401596</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E5">
-        <v>0.02244689824469095</v>
+        <v>0.1208190161236296</v>
       </c>
       <c r="F5">
-        <v>0.9133903659012971</v>
+        <v>0.9161058587459882</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L5">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>0.01951299278301554</v>
+        <v>0.08163374080656223</v>
       </c>
       <c r="F6">
-        <v>0.9109011378578428</v>
+        <v>0.9198584757714706</v>
       </c>
       <c r="G6">
         <v>27</v>
@@ -4026,28 +6462,25 @@
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="L6">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
